--- a/CateRulesWorksheet.xlsx
+++ b/CateRulesWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8625a7ea11ab9502/ADMIN onedrive/Projects/RTA/Student RTA Access/RTA Student Area/Workshop FIles/Advanced Data Understanding/Classification 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="8_{706D67EB-9225-4616-8643-BD48E942ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4EDBBBB-BDC7-4582-A3FB-502525BCB2FE}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="8_{706D67EB-9225-4616-8643-BD48E942ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6854B362-325A-44B0-9D46-3AB019CFFFE0}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RankingRules" sheetId="1" r:id="rId1"/>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B081AE-6B63-4748-A4EC-2C164B807DCE}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1412,60 +1412,60 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
+      <c r="D43">
+        <v>44</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
         <v>58</v>
       </c>
-      <c r="D43">
-        <v>11</v>
-      </c>
-      <c r="F43">
+      <c r="D44">
+        <v>11</v>
+      </c>
+      <c r="F44">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D44">
-        <v>44</v>
-      </c>
-      <c r="F44">
-        <v>11</v>
-      </c>
-    </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
+      <c r="D45">
+        <v>45</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
         <v>58</v>
       </c>
-      <c r="D45">
-        <v>11</v>
-      </c>
-      <c r="F45">
+      <c r="D46">
+        <v>11</v>
+      </c>
+      <c r="F46">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D46">
-        <v>45</v>
-      </c>
-      <c r="F46">
-        <v>11</v>
-      </c>
-    </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
+      <c r="D47">
+        <v>81</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
         <v>58</v>
       </c>
-      <c r="D47">
-        <v>11</v>
-      </c>
-      <c r="F47">
+      <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="F48">
         <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D48">
-        <v>81</v>
-      </c>
-      <c r="F48">
-        <v>11</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.55000000000000004">

--- a/CateRulesWorksheet.xlsx
+++ b/CateRulesWorksheet.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8625a7ea11ab9502/ADMIN onedrive/Projects/RTA/Student RTA Access/RTA Student Area/Workshop FIles/Advanced Data Understanding/Classification 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="8_{706D67EB-9225-4616-8643-BD48E942ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6854B362-325A-44B0-9D46-3AB019CFFFE0}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="8_{706D67EB-9225-4616-8643-BD48E942ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F28D95F1-9CDB-48E8-BAD4-76E59E95DD0A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23520" yWindow="1455" windowWidth="24735" windowHeight="11250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RankingRules" sheetId="1" r:id="rId1"/>
     <sheet name="PrecedenceRules" sheetId="2" r:id="rId2"/>
-    <sheet name="Fixes" sheetId="8" r:id="rId3"/>
-    <sheet name="AlwaysSecondary" sheetId="7" r:id="rId4"/>
-    <sheet name="otherRules" sheetId="4" r:id="rId5"/>
-    <sheet name="NameCate" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="Fixes" sheetId="8" r:id="rId4"/>
+    <sheet name="AlwaysSecondary" sheetId="7" r:id="rId5"/>
+    <sheet name="otherRules" sheetId="4" r:id="rId6"/>
+    <sheet name="NameCate" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
   <si>
     <t>Important Ranking</t>
   </si>
@@ -240,6 +241,18 @@
   </si>
   <si>
     <t>Information</t>
+  </si>
+  <si>
+    <t>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</t>
+  </si>
+  <si>
+    <t>lookup</t>
+  </si>
+  <si>
+    <t>farms</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
@@ -684,834 +697,849 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B081AE-6B63-4748-A4EC-2C164B807DCE}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="64.68359375" customWidth="1"/>
-    <col min="2" max="2" width="9.41796875" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="34.20703125" customWidth="1"/>
-    <col min="6" max="6" width="18.89453125" customWidth="1"/>
-    <col min="7" max="7" width="37.68359375" customWidth="1"/>
-    <col min="8" max="8" width="40.3125" customWidth="1"/>
+    <col min="2" max="2" width="64.68359375" customWidth="1"/>
+    <col min="3" max="3" width="9.41796875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="34.20703125" customWidth="1"/>
+    <col min="7" max="7" width="18.89453125" customWidth="1"/>
+    <col min="8" max="8" width="37.68359375" customWidth="1"/>
+    <col min="9" max="9" width="40.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>611</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>511</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>611</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>813</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4">
-        <v>0</v>
-      </c>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>6113</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6114</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5">
-        <v>0</v>
-      </c>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>446</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6">
-        <v>0</v>
-      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>621</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7">
-        <v>0</v>
-      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
         <v>48</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="F8">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9">
-        <v>0</v>
-      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
         <v>562</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10">
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10">
         <v>561</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11">
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>561</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>45</v>
       </c>
-      <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12">
         <v>541</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13">
-        <v>0</v>
-      </c>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>541</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>45</v>
       </c>
-      <c r="F13">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14">
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14">
         <v>53</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15">
-        <v>0</v>
-      </c>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>53</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="F15">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16">
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16">
         <v>52</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>65</v>
       </c>
-      <c r="F16">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17">
-        <v>0</v>
-      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>66</v>
       </c>
-      <c r="F17">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18">
-        <v>0</v>
-      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>33</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>47</v>
       </c>
-      <c r="F18">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19">
-        <v>0</v>
-      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>32</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>47</v>
       </c>
-      <c r="F19">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20">
-        <v>0</v>
-      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D20">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20">
         <v>31</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>31</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>47</v>
       </c>
-      <c r="F21">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>71</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23">
+      <c r="H22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23">
         <v>71</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>72</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25">
+      <c r="H24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25">
         <v>72</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25">
-        <v>11</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>11</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26">
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26">
         <v>812</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27">
-        <v>0</v>
-      </c>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>812</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>50</v>
       </c>
-      <c r="F27">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>813</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>551</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30">
+      <c r="D30" s="1"/>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30">
         <v>42</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" s="1"/>
-      <c r="D31">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="1"/>
+      <c r="E31">
         <v>42</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>56</v>
       </c>
-      <c r="F31">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32">
+      <c r="D32" s="1"/>
+      <c r="E32">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32">
         <v>41</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" s="1"/>
-      <c r="D33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="1"/>
+      <c r="E33">
         <v>41</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>56</v>
       </c>
-      <c r="F33">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
         <v>58</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="D34">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34">
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34">
         <v>23</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35">
         <v>23</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>57</v>
       </c>
-      <c r="F35">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" t="s">
         <v>58</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1</v>
       </c>
-      <c r="D36">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36">
+      <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36">
         <v>22</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37">
         <v>22</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>63</v>
       </c>
-      <c r="F37">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
+      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
         <v>58</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1</v>
       </c>
-      <c r="D38">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38">
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38">
         <v>21</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39">
         <v>21</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>63</v>
       </c>
-      <c r="F39">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
+      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="D40">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40">
+      <c r="E40">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40">
         <v>62</v>
       </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D41">
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41">
         <v>62</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>59</v>
       </c>
-      <c r="F41">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D42">
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E42">
         <v>519</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>60</v>
       </c>
-      <c r="F42">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D43">
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43">
         <v>44</v>
       </c>
-      <c r="F43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44">
-        <v>11</v>
-      </c>
-      <c r="F44">
+        <v>69</v>
+      </c>
+      <c r="B44" t="str">
+        <f>VLOOKUP(A44,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
+      <c r="E44">
+        <v>11</v>
+      </c>
+      <c r="G44">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E45">
         <v>45</v>
       </c>
-      <c r="F45">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46">
-        <v>11</v>
-      </c>
-      <c r="F46">
+        <v>69</v>
+      </c>
+      <c r="B46" t="str">
+        <f>VLOOKUP(A46,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="G46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D47">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E47">
         <v>81</v>
       </c>
-      <c r="F47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48">
-        <v>11</v>
-      </c>
-      <c r="F48">
+        <v>69</v>
+      </c>
+      <c r="B48" t="str">
+        <f>VLOOKUP(A48,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+      <c r="G48">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D49">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49">
         <v>61</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>61</v>
       </c>
-      <c r="F49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D50">
+      <c r="G49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E50">
         <v>71</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>62</v>
       </c>
-      <c r="F50">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D51">
+      <c r="G50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E51">
         <v>49</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>64</v>
       </c>
-      <c r="F51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" t="b">
+      <c r="G51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" t="b">
         <v>1</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>1</v>
       </c>
-      <c r="D52">
-        <v>11</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="E52">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1522,6 +1550,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D01CADA-E5DA-413D-A174-E52F928EC1FE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088888C1-1F0C-41C5-A707-A9091A4A4336}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1570,7 +1626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB23B12-46B9-4AAB-BF22-6E2AE20EC355}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1618,7 +1674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07BE606-129F-4FEF-9F31-84207ACD6174}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1667,7 +1723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E263BDFC-0659-4972-B9AD-ADFE892F6F01}">
   <dimension ref="A1:D4"/>
   <sheetViews>

--- a/CateRulesWorksheet.xlsx
+++ b/CateRulesWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8625a7ea11ab9502/ADMIN onedrive/Projects/RTA/Student RTA Access/RTA Student Area/Workshop FIles/Advanced Data Understanding/Classification 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="8_{706D67EB-9225-4616-8643-BD48E942ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F28D95F1-9CDB-48E8-BAD4-76E59E95DD0A}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="8_{706D67EB-9225-4616-8643-BD48E942ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BC3DAB2-64B3-41E6-A7B9-D8558AFF612E}"/>
   <bookViews>
-    <workbookView xWindow="-23520" yWindow="1455" windowWidth="24735" windowHeight="11250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RankingRules" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
   <si>
     <t>Important Ranking</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>Construction</t>
-  </si>
-  <si>
-    <t>farming | farming$|^ferme | ferme | ferme$|farms|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</t>
   </si>
   <si>
     <t>Medical</t>
@@ -699,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B081AE-6B63-4748-A4EC-2C164B807DCE}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -716,7 +713,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>51</v>
@@ -883,114 +880,126 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>561</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(A11,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10">
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
         <v>561</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>561</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>541</v>
+      </c>
+      <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
       <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="str">
+        <f>VLOOKUP(A13,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
         <v>541</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>541</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="str">
+        <f>VLOOKUP(A15,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14">
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15">
         <v>53</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -998,7 +1007,7 @@
         <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -1007,7 +1016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D17">
         <v>0</v>
       </c>
@@ -1015,7 +1024,7 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -1024,7 +1033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D18">
         <v>0</v>
       </c>
@@ -1041,7 +1050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D19">
         <v>0</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D20">
         <v>0</v>
       </c>
@@ -1075,7 +1084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>48</v>
       </c>
@@ -1095,104 +1104,116 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22">
+        <v>71</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="str">
+        <f>VLOOKUP(A23,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E22">
-        <v>11</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>71</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23">
-        <v>71</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23">
-        <v>11</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24">
+      <c r="H23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24">
+        <v>72</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="str">
+        <f>VLOOKUP(A25,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>11</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>72</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E25">
-        <v>72</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25">
-        <v>11</v>
-      </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
+      <c r="H25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>812</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="str">
+        <f>VLOOKUP(A27,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="E26">
-        <v>11</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26">
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27">
         <v>812</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>812</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D28">
         <v>0</v>
       </c>
@@ -1203,7 +1224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D29">
         <v>0</v>
       </c>
@@ -1214,200 +1235,224 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="1"/>
       <c r="E30">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G30">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="str">
+        <f>VLOOKUP(A31,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31">
         <v>42</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>56</v>
       </c>
-      <c r="G31">
-        <v>11</v>
-      </c>
-      <c r="H31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="1"/>
       <c r="E32">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G32">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="str">
+        <f>VLOOKUP(A33,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33">
         <v>41</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>56</v>
       </c>
-      <c r="G33">
-        <v>11</v>
-      </c>
-      <c r="H33" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" t="s">
+      <c r="E34">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="str">
+        <f>VLOOKUP(A35,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="str">
+        <f>VLOOKUP(A37,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="str">
+        <f>VLOOKUP(A39,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40">
+        <v>62</v>
+      </c>
+      <c r="F40" t="s">
         <v>58</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34">
-        <v>23</v>
-      </c>
-      <c r="H34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E35">
-        <v>23</v>
-      </c>
-      <c r="F35" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35">
-        <v>11</v>
-      </c>
-      <c r="H35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>11</v>
-      </c>
-      <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E37">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37">
-        <v>11</v>
-      </c>
-      <c r="H37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38">
-        <v>21</v>
-      </c>
-      <c r="H38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E39">
-        <v>21</v>
-      </c>
-      <c r="F39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39">
-        <v>11</v>
-      </c>
-      <c r="H39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>30</v>
-      </c>
       <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="str">
+        <f>VLOOKUP(A41,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41">
         <v>62</v>
-      </c>
-      <c r="H40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E41">
-        <v>62</v>
-      </c>
-      <c r="F41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41">
-        <v>11</v>
       </c>
       <c r="H41" t="s">
         <v>30</v>
@@ -1418,7 +1463,7 @@
         <v>519</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G42">
         <v>11</v>
@@ -1437,7 +1482,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" t="str">
         <f>VLOOKUP(A44,Sheet1!A:B,2,)</f>
@@ -1460,7 +1505,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" t="str">
         <f>VLOOKUP(A46,Sheet1!A:B,2,)</f>
@@ -1483,7 +1528,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" t="str">
         <f>VLOOKUP(A48,Sheet1!A:B,2,)</f>
@@ -1501,7 +1546,7 @@
         <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G49">
         <v>11</v>
@@ -1512,7 +1557,7 @@
         <v>71</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G50">
         <v>11</v>
@@ -1523,7 +1568,7 @@
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>11</v>
@@ -1554,22 +1599,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/CateRulesWorksheet.xlsx
+++ b/CateRulesWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8625a7ea11ab9502/ADMIN onedrive/Projects/RTA/Student RTA Access/RTA Student Area/Workshop FIles/Advanced Data Understanding/Classification 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="8_{706D67EB-9225-4616-8643-BD48E942ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BC3DAB2-64B3-41E6-A7B9-D8558AFF612E}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="8_{706D67EB-9225-4616-8643-BD48E942ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26C7026C-048A-4F05-B110-23394F9A1602}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27420" yWindow="1395" windowWidth="24735" windowHeight="11250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RankingRules" sheetId="1" r:id="rId1"/>
@@ -274,6 +274,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -696,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B081AE-6B63-4748-A4EC-2C164B807DCE}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1218,241 +1219,244 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>813</v>
+        <v>551</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29">
-        <v>0</v>
+      <c r="D29" s="1"/>
+      <c r="E29">
+        <v>42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
       </c>
       <c r="G29">
-        <v>551</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="str">
+        <f>VLOOKUP(A30,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30">
         <v>42</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>56</v>
       </c>
-      <c r="G30">
-        <v>11</v>
-      </c>
-      <c r="H30" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" t="str">
-        <f>VLOOKUP(A31,Sheet1!A:B,2,)</f>
-        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
-      </c>
       <c r="D31" s="1"/>
       <c r="E31">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G31">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="str">
+        <f>VLOOKUP(A32,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32">
         <v>41</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>56</v>
       </c>
-      <c r="G32">
-        <v>11</v>
-      </c>
-      <c r="H32" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
+      <c r="E33">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B33" t="str">
-        <f>VLOOKUP(A33,Sheet1!A:B,2,)</f>
+      <c r="B34" t="str">
+        <f>VLOOKUP(A34,Sheet1!A:B,2,)</f>
         <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33">
-        <v>41</v>
-      </c>
-      <c r="H33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34">
         <v>23</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>57</v>
       </c>
-      <c r="G34">
-        <v>11</v>
-      </c>
-      <c r="H34" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
+      <c r="E35">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="str">
-        <f>VLOOKUP(A35,Sheet1!A:B,2,)</f>
+      <c r="B36" t="str">
+        <f>VLOOKUP(A36,Sheet1!A:B,2,)</f>
         <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>1</v>
       </c>
-      <c r="E35">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36">
         <v>22</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>62</v>
       </c>
-      <c r="G36">
-        <v>11</v>
-      </c>
-      <c r="H36" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
         <v>68</v>
       </c>
-      <c r="B37" t="str">
-        <f>VLOOKUP(A37,Sheet1!A:B,2,)</f>
+      <c r="B38" t="str">
+        <f>VLOOKUP(A38,Sheet1!A:B,2,)</f>
         <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>1</v>
       </c>
-      <c r="E37">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E38">
-        <v>21</v>
-      </c>
-      <c r="F38" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39">
         <v>62</v>
       </c>
-      <c r="G38">
-        <v>11</v>
-      </c>
-      <c r="H38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
         <v>68</v>
       </c>
-      <c r="B39" t="str">
-        <f>VLOOKUP(A39,Sheet1!A:B,2,)</f>
+      <c r="B40" t="str">
+        <f>VLOOKUP(A40,Sheet1!A:B,2,)</f>
         <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39">
-        <v>21</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="E40">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40">
-        <v>62</v>
-      </c>
-      <c r="F40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40">
-        <v>11</v>
-      </c>
       <c r="H40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" t="str">
-        <f>VLOOKUP(A41,Sheet1!A:B,2,)</f>
-        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
-      </c>
       <c r="E41">
-        <v>11</v>
+        <v>519</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G41">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H41" t="s">
         <v>30</v>
@@ -1460,121 +1464,118 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E42">
-        <v>519</v>
-      </c>
-      <c r="F42" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>11</v>
       </c>
-      <c r="H42" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="str">
+        <f>VLOOKUP(A43,Sheet1!A:B,2,)</f>
+        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
+      </c>
       <c r="E43">
+        <v>11</v>
+      </c>
+      <c r="G43">
         <v>44</v>
       </c>
-      <c r="G43">
-        <v>11</v>
-      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
+      <c r="E44">
+        <v>45</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
         <v>68</v>
       </c>
-      <c r="B44" t="str">
-        <f>VLOOKUP(A44,Sheet1!A:B,2,)</f>
+      <c r="B45" t="str">
+        <f>VLOOKUP(A45,Sheet1!A:B,2,)</f>
         <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
       </c>
-      <c r="E44">
-        <v>11</v>
-      </c>
-      <c r="G44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E45">
+        <v>11</v>
+      </c>
+      <c r="G45">
         <v>45</v>
       </c>
-      <c r="G45">
-        <v>11</v>
-      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
+      <c r="E46">
+        <v>81</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
         <v>68</v>
       </c>
-      <c r="B46" t="str">
-        <f>VLOOKUP(A46,Sheet1!A:B,2,)</f>
+      <c r="B47" t="str">
+        <f>VLOOKUP(A47,Sheet1!A:B,2,)</f>
         <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
       </c>
-      <c r="E46">
-        <v>11</v>
-      </c>
-      <c r="G46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E47">
+        <v>11</v>
+      </c>
+      <c r="G47">
         <v>81</v>
       </c>
-      <c r="G47">
-        <v>11</v>
-      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" t="str">
-        <f>VLOOKUP(A48,Sheet1!A:B,2,)</f>
-        <v>farming | farming$|^ferme | ferme | ferme$|farms|farms$|farms,|^farm | farm |farm$|farm,|acre|nurser|cattle| ranch|stable| sod | sod$|livestock|vineyard</v>
-      </c>
       <c r="E48">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="F48" t="s">
+        <v>60</v>
       </c>
       <c r="G48">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E49">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
         <v>61</v>
       </c>
-      <c r="F49" t="s">
-        <v>60</v>
-      </c>
       <c r="G49">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E50">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E51">
-        <v>49</v>
-      </c>
-      <c r="F51" t="s">
-        <v>63</v>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51">
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+        <v>813</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" t="b">
         <v>1</v>
       </c>
